--- a/captcha_mpets.xlsx
+++ b/captcha_mpets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./mp/samples/874756.png</t>
+          <t>./mp/samples/184963.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>874756</t>
+          <t>184963</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87475</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./mp/samples/493718.png</t>
+          <t>./mp/samples/269469.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>493718</t>
+          <t>269469</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49371</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./mp/samples/353084.png</t>
+          <t>./mp/samples/933479.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>353084</t>
+          <t>933479</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35308</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./mp/samples/868081.png</t>
+          <t>./mp/samples/828000.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>868081</t>
+          <t>828000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86808</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./mp/samples/689479.png</t>
+          <t>./mp/samples/186763.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>689479</t>
+          <t>186763</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68947</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./mp/samples/828000.png</t>
+          <t>./mp/samples/938051.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>828000</t>
+          <t>938051</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,277 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./mp/samples/263062.png</t>
+          <t>./mp/samples/177547.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>263062</t>
+          <t>177547</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26303</t>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>./mp/samples/858364.png</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>858364</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>./mp/samples/239266.png</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>239266</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>./mp/samples/770158.png</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>770158</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>./mp/samples/818738.png</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>818738</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>./mp/samples/492373.png</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>492373</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>./mp/samples/640760.png</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>640760</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>./mp/samples/611172.png</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>611172</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>./mp/samples/147614.png</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>147614</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>./mp/samples/507561.png</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>507561</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>./mp/samples/662277.png</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>662277</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>./mp/samples/243914.png</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>243914</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>./mp/samples/435785.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>435785</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>./mp/samples/694661.png</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>694661</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[UNK][UNK][UNK][UNK][UNK][UNK]</t>
         </is>
       </c>
     </row>
